--- a/results_files/Complete/Easy/1-mst_file.xlsx
+++ b/results_files/Complete/Easy/1-mst_file.xlsx
@@ -739,9 +739,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -765,8 +771,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,10 +803,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0">
@@ -807,10 +814,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="0">
@@ -818,10 +825,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="0">
@@ -829,10 +836,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="0">
@@ -840,10 +847,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="0">
@@ -851,10 +858,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="0">
@@ -862,10 +869,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="0">
@@ -873,10 +880,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="0">
@@ -884,10 +891,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="0">
@@ -895,10 +902,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="0">
@@ -906,10 +913,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="0">
@@ -917,10 +924,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="0">
@@ -928,10 +935,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="0">
@@ -939,10 +946,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="0">
@@ -950,10 +957,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0">
@@ -961,10 +968,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="0">
@@ -972,10 +979,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="0">
@@ -983,10 +990,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="0">
@@ -994,10 +1001,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="0">
@@ -1005,10 +1012,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="0">
@@ -1016,10 +1023,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="0">
@@ -1027,10 +1034,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="0">
@@ -1038,10 +1045,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="0">
@@ -1049,10 +1056,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="0">
@@ -1060,10 +1067,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="0">
@@ -1071,10 +1078,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="0">
@@ -1082,10 +1089,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="0">
@@ -1093,10 +1100,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="0">
@@ -1104,10 +1111,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="0">
@@ -1115,10 +1122,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="0">
@@ -1126,10 +1133,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="0">
@@ -1137,10 +1144,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="0">
@@ -1148,10 +1155,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="0">
@@ -1159,10 +1166,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="0">
@@ -1170,10 +1177,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C36" s="0">
@@ -1181,10 +1188,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C37" s="0">
@@ -1192,10 +1199,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C38" s="0">
@@ -1203,10 +1210,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C39" s="0">
@@ -1214,10 +1221,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="0">
@@ -1225,10 +1232,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="0">
@@ -1236,10 +1243,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C42" s="0">
@@ -1247,10 +1254,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C43" s="0">
@@ -1258,10 +1265,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C44" s="0">
@@ -1269,10 +1276,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="0">
@@ -1280,10 +1287,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C46" s="0">
@@ -1291,10 +1298,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="0">
@@ -1302,10 +1309,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C48" s="0">
@@ -1313,10 +1320,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="0">
@@ -1324,10 +1331,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C50" s="0">
@@ -1335,10 +1342,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C51" s="0">
@@ -1346,10 +1353,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C52" s="0">
@@ -1357,10 +1364,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C53" s="0">
@@ -1368,10 +1375,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C54" s="0">
@@ -1379,10 +1386,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C55" s="0">
@@ -1390,10 +1397,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C56" s="0">
@@ -1401,10 +1408,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C57" s="0">
@@ -1412,10 +1419,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C58" s="0">
@@ -1423,10 +1430,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C59" s="0">
@@ -1434,10 +1441,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="0">
@@ -1445,10 +1452,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="0">
@@ -1456,10 +1463,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C62" s="0">
@@ -1467,10 +1474,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C63" s="0">
@@ -1478,10 +1485,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C64" s="0">
@@ -1489,10 +1496,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C65" s="0">
@@ -1500,10 +1507,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C66" s="0">
@@ -1511,10 +1518,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C67" s="0">
@@ -1522,10 +1529,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C68" s="0">
@@ -1533,10 +1540,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C69" s="0">
@@ -1544,10 +1551,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C70" s="0">
@@ -1555,10 +1562,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C71" s="0">
@@ -1566,10 +1573,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C72" s="0">
@@ -1577,10 +1584,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C73" s="0">
@@ -1588,10 +1595,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C74" s="0">
@@ -1599,10 +1606,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C75" s="0">
@@ -1610,10 +1617,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C76" s="0">
@@ -1621,10 +1628,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C77" s="0">
@@ -1632,10 +1639,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C78" s="0">
@@ -1643,10 +1650,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C79" s="0">
@@ -1654,10 +1661,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C80" s="0">
@@ -1665,10 +1672,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C81" s="0">
@@ -1676,10 +1683,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C82" s="0">
@@ -1687,10 +1694,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C83" s="0">
@@ -1698,10 +1705,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C84" s="0">
@@ -1709,10 +1716,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C85" s="0">
@@ -1720,10 +1727,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C86" s="0">
@@ -1731,10 +1738,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C87" s="0">
@@ -1742,10 +1749,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C88" s="0">
@@ -1753,10 +1760,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C89" s="0">
@@ -1764,10 +1771,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C90" s="0">
@@ -1775,10 +1782,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C91" s="0">
@@ -1786,10 +1793,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C92" s="0">
@@ -1797,10 +1804,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C93" s="0">
@@ -1808,10 +1815,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C94" s="0">
@@ -1819,10 +1826,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C95" s="0">
@@ -1830,10 +1837,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C96" s="0">
@@ -1841,10 +1848,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C97" s="0">
@@ -1852,10 +1859,10 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C98" s="0">
@@ -1863,10 +1870,10 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C99" s="0">
@@ -1874,10 +1881,10 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C100" s="0">
@@ -1885,10 +1892,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C101" s="0">
@@ -1896,10 +1903,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C102" s="0">
@@ -1907,10 +1914,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C103" s="0">
@@ -1918,10 +1925,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C104" s="0">
@@ -1929,10 +1936,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C105" s="0">
@@ -1940,10 +1947,10 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C106" s="0">
@@ -1951,10 +1958,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C107" s="0">
@@ -1962,10 +1969,10 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C108" s="0">
@@ -1973,10 +1980,10 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C109" s="0">
@@ -1984,10 +1991,10 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C110" s="0">
@@ -1995,10 +2002,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C111" s="0">
@@ -2006,10 +2013,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C112" s="0">
@@ -2017,10 +2024,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C113" s="0">
@@ -2028,10 +2035,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C114" s="0">
@@ -2039,10 +2046,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>214</v>
       </c>
       <c r="C115" s="0">
@@ -2050,10 +2057,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C116" s="0">
@@ -2061,10 +2068,10 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C117" s="0">
@@ -2072,10 +2079,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C118" s="0">
@@ -2083,10 +2090,10 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C119" s="0">
@@ -2094,10 +2101,10 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C120" s="0">
@@ -2105,10 +2112,10 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C121" s="0">
@@ -2116,10 +2123,10 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C122" s="0">
@@ -2127,10 +2134,10 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C123" s="0">
@@ -2138,10 +2145,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C124" s="0">
@@ -2149,10 +2156,10 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C125" s="0">
@@ -2160,10 +2167,10 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="1" t="s">
         <v>233</v>
       </c>
       <c r="C126" s="0">
@@ -2171,10 +2178,10 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C127" s="0">
@@ -2182,10 +2189,10 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C128" s="0">
@@ -2193,10 +2200,10 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C129" s="0">
@@ -2204,6 +2211,264 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="B8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="B9" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="B10" r:id="rId18"/>
+    <hyperlink ref="A11" r:id="rId19"/>
+    <hyperlink ref="B11" r:id="rId20"/>
+    <hyperlink ref="A12" r:id="rId21"/>
+    <hyperlink ref="B12" r:id="rId22"/>
+    <hyperlink ref="A13" r:id="rId23"/>
+    <hyperlink ref="B13" r:id="rId24"/>
+    <hyperlink ref="A14" r:id="rId25"/>
+    <hyperlink ref="B14" r:id="rId26"/>
+    <hyperlink ref="A15" r:id="rId27"/>
+    <hyperlink ref="B15" r:id="rId28"/>
+    <hyperlink ref="A16" r:id="rId29"/>
+    <hyperlink ref="B16" r:id="rId30"/>
+    <hyperlink ref="A17" r:id="rId31"/>
+    <hyperlink ref="B17" r:id="rId32"/>
+    <hyperlink ref="A18" r:id="rId33"/>
+    <hyperlink ref="B18" r:id="rId34"/>
+    <hyperlink ref="A19" r:id="rId35"/>
+    <hyperlink ref="B19" r:id="rId36"/>
+    <hyperlink ref="A20" r:id="rId37"/>
+    <hyperlink ref="B20" r:id="rId38"/>
+    <hyperlink ref="A21" r:id="rId39"/>
+    <hyperlink ref="B21" r:id="rId40"/>
+    <hyperlink ref="A22" r:id="rId41"/>
+    <hyperlink ref="B22" r:id="rId42"/>
+    <hyperlink ref="A23" r:id="rId43"/>
+    <hyperlink ref="B23" r:id="rId44"/>
+    <hyperlink ref="A24" r:id="rId45"/>
+    <hyperlink ref="B24" r:id="rId46"/>
+    <hyperlink ref="A25" r:id="rId47"/>
+    <hyperlink ref="B25" r:id="rId48"/>
+    <hyperlink ref="A26" r:id="rId49"/>
+    <hyperlink ref="B26" r:id="rId50"/>
+    <hyperlink ref="A27" r:id="rId51"/>
+    <hyperlink ref="B27" r:id="rId52"/>
+    <hyperlink ref="A28" r:id="rId53"/>
+    <hyperlink ref="B28" r:id="rId54"/>
+    <hyperlink ref="A29" r:id="rId55"/>
+    <hyperlink ref="B29" r:id="rId56"/>
+    <hyperlink ref="A30" r:id="rId57"/>
+    <hyperlink ref="B30" r:id="rId58"/>
+    <hyperlink ref="A31" r:id="rId59"/>
+    <hyperlink ref="B31" r:id="rId60"/>
+    <hyperlink ref="A32" r:id="rId61"/>
+    <hyperlink ref="B32" r:id="rId62"/>
+    <hyperlink ref="A33" r:id="rId63"/>
+    <hyperlink ref="B33" r:id="rId64"/>
+    <hyperlink ref="A34" r:id="rId65"/>
+    <hyperlink ref="B34" r:id="rId66"/>
+    <hyperlink ref="A35" r:id="rId67"/>
+    <hyperlink ref="B35" r:id="rId68"/>
+    <hyperlink ref="A36" r:id="rId69"/>
+    <hyperlink ref="B36" r:id="rId70"/>
+    <hyperlink ref="A37" r:id="rId71"/>
+    <hyperlink ref="B37" r:id="rId72"/>
+    <hyperlink ref="A38" r:id="rId73"/>
+    <hyperlink ref="B38" r:id="rId74"/>
+    <hyperlink ref="A39" r:id="rId75"/>
+    <hyperlink ref="B39" r:id="rId76"/>
+    <hyperlink ref="A40" r:id="rId77"/>
+    <hyperlink ref="B40" r:id="rId78"/>
+    <hyperlink ref="A41" r:id="rId79"/>
+    <hyperlink ref="B41" r:id="rId80"/>
+    <hyperlink ref="A42" r:id="rId81"/>
+    <hyperlink ref="B42" r:id="rId82"/>
+    <hyperlink ref="A43" r:id="rId83"/>
+    <hyperlink ref="B43" r:id="rId84"/>
+    <hyperlink ref="A44" r:id="rId85"/>
+    <hyperlink ref="B44" r:id="rId86"/>
+    <hyperlink ref="A45" r:id="rId87"/>
+    <hyperlink ref="B45" r:id="rId88"/>
+    <hyperlink ref="A46" r:id="rId89"/>
+    <hyperlink ref="B46" r:id="rId90"/>
+    <hyperlink ref="A47" r:id="rId91"/>
+    <hyperlink ref="B47" r:id="rId92"/>
+    <hyperlink ref="A48" r:id="rId93"/>
+    <hyperlink ref="B48" r:id="rId94"/>
+    <hyperlink ref="A49" r:id="rId95"/>
+    <hyperlink ref="B49" r:id="rId96"/>
+    <hyperlink ref="A50" r:id="rId97"/>
+    <hyperlink ref="B50" r:id="rId98"/>
+    <hyperlink ref="A51" r:id="rId99"/>
+    <hyperlink ref="B51" r:id="rId100"/>
+    <hyperlink ref="A52" r:id="rId101"/>
+    <hyperlink ref="B52" r:id="rId102"/>
+    <hyperlink ref="A53" r:id="rId103"/>
+    <hyperlink ref="B53" r:id="rId104"/>
+    <hyperlink ref="A54" r:id="rId105"/>
+    <hyperlink ref="B54" r:id="rId106"/>
+    <hyperlink ref="A55" r:id="rId107"/>
+    <hyperlink ref="B55" r:id="rId108"/>
+    <hyperlink ref="A56" r:id="rId109"/>
+    <hyperlink ref="B56" r:id="rId110"/>
+    <hyperlink ref="A57" r:id="rId111"/>
+    <hyperlink ref="B57" r:id="rId112"/>
+    <hyperlink ref="A58" r:id="rId113"/>
+    <hyperlink ref="B58" r:id="rId114"/>
+    <hyperlink ref="A59" r:id="rId115"/>
+    <hyperlink ref="B59" r:id="rId116"/>
+    <hyperlink ref="A60" r:id="rId117"/>
+    <hyperlink ref="B60" r:id="rId118"/>
+    <hyperlink ref="A61" r:id="rId119"/>
+    <hyperlink ref="B61" r:id="rId120"/>
+    <hyperlink ref="A62" r:id="rId121"/>
+    <hyperlink ref="B62" r:id="rId122"/>
+    <hyperlink ref="A63" r:id="rId123"/>
+    <hyperlink ref="B63" r:id="rId124"/>
+    <hyperlink ref="A64" r:id="rId125"/>
+    <hyperlink ref="B64" r:id="rId126"/>
+    <hyperlink ref="A65" r:id="rId127"/>
+    <hyperlink ref="B65" r:id="rId128"/>
+    <hyperlink ref="A66" r:id="rId129"/>
+    <hyperlink ref="B66" r:id="rId130"/>
+    <hyperlink ref="A67" r:id="rId131"/>
+    <hyperlink ref="B67" r:id="rId132"/>
+    <hyperlink ref="A68" r:id="rId133"/>
+    <hyperlink ref="B68" r:id="rId134"/>
+    <hyperlink ref="A69" r:id="rId135"/>
+    <hyperlink ref="B69" r:id="rId136"/>
+    <hyperlink ref="A70" r:id="rId137"/>
+    <hyperlink ref="B70" r:id="rId138"/>
+    <hyperlink ref="A71" r:id="rId139"/>
+    <hyperlink ref="B71" r:id="rId140"/>
+    <hyperlink ref="A72" r:id="rId141"/>
+    <hyperlink ref="B72" r:id="rId142"/>
+    <hyperlink ref="A73" r:id="rId143"/>
+    <hyperlink ref="B73" r:id="rId144"/>
+    <hyperlink ref="A74" r:id="rId145"/>
+    <hyperlink ref="B74" r:id="rId146"/>
+    <hyperlink ref="A75" r:id="rId147"/>
+    <hyperlink ref="B75" r:id="rId148"/>
+    <hyperlink ref="A76" r:id="rId149"/>
+    <hyperlink ref="B76" r:id="rId150"/>
+    <hyperlink ref="A77" r:id="rId151"/>
+    <hyperlink ref="B77" r:id="rId152"/>
+    <hyperlink ref="A78" r:id="rId153"/>
+    <hyperlink ref="B78" r:id="rId154"/>
+    <hyperlink ref="A79" r:id="rId155"/>
+    <hyperlink ref="B79" r:id="rId156"/>
+    <hyperlink ref="A80" r:id="rId157"/>
+    <hyperlink ref="B80" r:id="rId158"/>
+    <hyperlink ref="A81" r:id="rId159"/>
+    <hyperlink ref="B81" r:id="rId160"/>
+    <hyperlink ref="A82" r:id="rId161"/>
+    <hyperlink ref="B82" r:id="rId162"/>
+    <hyperlink ref="A83" r:id="rId163"/>
+    <hyperlink ref="B83" r:id="rId164"/>
+    <hyperlink ref="A84" r:id="rId165"/>
+    <hyperlink ref="B84" r:id="rId166"/>
+    <hyperlink ref="A85" r:id="rId167"/>
+    <hyperlink ref="B85" r:id="rId168"/>
+    <hyperlink ref="A86" r:id="rId169"/>
+    <hyperlink ref="B86" r:id="rId170"/>
+    <hyperlink ref="A87" r:id="rId171"/>
+    <hyperlink ref="B87" r:id="rId172"/>
+    <hyperlink ref="A88" r:id="rId173"/>
+    <hyperlink ref="B88" r:id="rId174"/>
+    <hyperlink ref="A89" r:id="rId175"/>
+    <hyperlink ref="B89" r:id="rId176"/>
+    <hyperlink ref="A90" r:id="rId177"/>
+    <hyperlink ref="B90" r:id="rId178"/>
+    <hyperlink ref="A91" r:id="rId179"/>
+    <hyperlink ref="B91" r:id="rId180"/>
+    <hyperlink ref="A92" r:id="rId181"/>
+    <hyperlink ref="B92" r:id="rId182"/>
+    <hyperlink ref="A93" r:id="rId183"/>
+    <hyperlink ref="B93" r:id="rId184"/>
+    <hyperlink ref="A94" r:id="rId185"/>
+    <hyperlink ref="B94" r:id="rId186"/>
+    <hyperlink ref="A95" r:id="rId187"/>
+    <hyperlink ref="B95" r:id="rId188"/>
+    <hyperlink ref="A96" r:id="rId189"/>
+    <hyperlink ref="B96" r:id="rId190"/>
+    <hyperlink ref="A97" r:id="rId191"/>
+    <hyperlink ref="B97" r:id="rId192"/>
+    <hyperlink ref="A98" r:id="rId193"/>
+    <hyperlink ref="B98" r:id="rId194"/>
+    <hyperlink ref="A99" r:id="rId195"/>
+    <hyperlink ref="B99" r:id="rId196"/>
+    <hyperlink ref="A100" r:id="rId197"/>
+    <hyperlink ref="B100" r:id="rId198"/>
+    <hyperlink ref="A101" r:id="rId199"/>
+    <hyperlink ref="B101" r:id="rId200"/>
+    <hyperlink ref="A102" r:id="rId201"/>
+    <hyperlink ref="B102" r:id="rId202"/>
+    <hyperlink ref="A103" r:id="rId203"/>
+    <hyperlink ref="B103" r:id="rId204"/>
+    <hyperlink ref="A104" r:id="rId205"/>
+    <hyperlink ref="B104" r:id="rId206"/>
+    <hyperlink ref="A105" r:id="rId207"/>
+    <hyperlink ref="B105" r:id="rId208"/>
+    <hyperlink ref="A106" r:id="rId209"/>
+    <hyperlink ref="B106" r:id="rId210"/>
+    <hyperlink ref="A107" r:id="rId211"/>
+    <hyperlink ref="B107" r:id="rId212"/>
+    <hyperlink ref="A108" r:id="rId213"/>
+    <hyperlink ref="B108" r:id="rId214"/>
+    <hyperlink ref="A109" r:id="rId215"/>
+    <hyperlink ref="B109" r:id="rId216"/>
+    <hyperlink ref="A110" r:id="rId217"/>
+    <hyperlink ref="B110" r:id="rId218"/>
+    <hyperlink ref="A111" r:id="rId219"/>
+    <hyperlink ref="B111" r:id="rId220"/>
+    <hyperlink ref="A112" r:id="rId221"/>
+    <hyperlink ref="B112" r:id="rId222"/>
+    <hyperlink ref="A113" r:id="rId223"/>
+    <hyperlink ref="B113" r:id="rId224"/>
+    <hyperlink ref="A114" r:id="rId225"/>
+    <hyperlink ref="B114" r:id="rId226"/>
+    <hyperlink ref="A115" r:id="rId227"/>
+    <hyperlink ref="B115" r:id="rId228"/>
+    <hyperlink ref="A116" r:id="rId229"/>
+    <hyperlink ref="B116" r:id="rId230"/>
+    <hyperlink ref="A117" r:id="rId231"/>
+    <hyperlink ref="B117" r:id="rId232"/>
+    <hyperlink ref="A118" r:id="rId233"/>
+    <hyperlink ref="B118" r:id="rId234"/>
+    <hyperlink ref="A119" r:id="rId235"/>
+    <hyperlink ref="B119" r:id="rId236"/>
+    <hyperlink ref="A120" r:id="rId237"/>
+    <hyperlink ref="B120" r:id="rId238"/>
+    <hyperlink ref="A121" r:id="rId239"/>
+    <hyperlink ref="B121" r:id="rId240"/>
+    <hyperlink ref="A122" r:id="rId241"/>
+    <hyperlink ref="B122" r:id="rId242"/>
+    <hyperlink ref="A123" r:id="rId243"/>
+    <hyperlink ref="B123" r:id="rId244"/>
+    <hyperlink ref="A124" r:id="rId245"/>
+    <hyperlink ref="B124" r:id="rId246"/>
+    <hyperlink ref="A125" r:id="rId247"/>
+    <hyperlink ref="B125" r:id="rId248"/>
+    <hyperlink ref="A126" r:id="rId249"/>
+    <hyperlink ref="B126" r:id="rId250"/>
+    <hyperlink ref="A127" r:id="rId251"/>
+    <hyperlink ref="B127" r:id="rId252"/>
+    <hyperlink ref="A128" r:id="rId253"/>
+    <hyperlink ref="B128" r:id="rId254"/>
+    <hyperlink ref="A129" r:id="rId255"/>
+    <hyperlink ref="B129" r:id="rId256"/>
+  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>
--- a/results_files/Complete/Easy/1-mst_file.xlsx
+++ b/results_files/Complete/Easy/1-mst_file.xlsx
@@ -790,6 +790,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.094242095947266" customWidth="1"/>
+    <col min="2" max="2" width="21.094242095947266" customWidth="1"/>
+    <col min="3" max="3" width="12.3634033203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">

--- a/results_files/Complete/Easy/1-mst_file.xlsx
+++ b/results_files/Complete/Easy/1-mst_file.xlsx
@@ -790,11 +790,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.094242095947266" customWidth="1"/>
-    <col min="2" max="2" width="21.094242095947266" customWidth="1"/>
-    <col min="3" max="3" width="12.3634033203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
